--- a/api/reference_data/Trac Cloud-Reference.xlsx
+++ b/api/reference_data/Trac Cloud-Reference.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Yu\Desktop\TracCloud_v2\api\reference_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjinhong/Desktop/TracCloud_v2/api/reference_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA9CCED-6D12-4CC2-B4F7-CE28C658B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807B64C-22F7-F443-B45F-64E7A87CC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8145" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
+    <workbookView xWindow="3520" yWindow="640" windowWidth="26720" windowHeight="17120" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CropCategory" sheetId="2" r:id="rId1"/>
     <sheet name="CropVariety" sheetId="11" r:id="rId2"/>
     <sheet name="CropGrowthStage" sheetId="12" r:id="rId3"/>
+    <sheet name="Unit" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="481">
   <si>
     <t>Cortland</t>
   </si>
@@ -1425,6 +1426,131 @@
   <si>
     <t>crop_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl oz</t>
+  </si>
+  <si>
+    <t>fluid ounce (volume)</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>ounce (weight)</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>pound (weight)</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pint (volume), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>need to check if still not used by NYS DEC</t>
+    </r>
+  </si>
+  <si>
+    <t>qt</t>
+  </si>
+  <si>
+    <t>quart (volume</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>gallon (volume)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ton (weight), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>need to check if still not used by NYS DEC</t>
+    </r>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>gram (weight)</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>miligram (weight)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>liter (volume)</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>mililiter (volume)</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kilogram (weight)</t>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hectare</t>
+  </si>
+  <si>
+    <t>units of 1000 sq ft</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1432,19 +1558,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1452,14 +1578,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1482,6 +1608,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1496,7 +1628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1533,28 +1665,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1572,10 +1792,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,28 +2097,28 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>447</v>
       </c>
@@ -1918,7 +2134,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>164</v>
       </c>
@@ -1932,7 +2148,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>165</v>
       </c>
@@ -1943,7 +2159,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>168</v>
       </c>
@@ -1954,7 +2170,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>171</v>
       </c>
@@ -1965,7 +2181,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>174</v>
       </c>
@@ -1976,7 +2192,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
@@ -1987,7 +2203,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>179</v>
       </c>
@@ -1998,7 +2214,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>182</v>
       </c>
@@ -2009,7 +2225,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>185</v>
       </c>
@@ -2020,7 +2236,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>188</v>
       </c>
@@ -2031,7 +2247,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>191</v>
       </c>
@@ -2042,7 +2258,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>196</v>
       </c>
@@ -2053,7 +2269,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>197</v>
       </c>
@@ -2064,7 +2280,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
@@ -2075,7 +2291,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>202</v>
       </c>
@@ -2086,7 +2302,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>205</v>
       </c>
@@ -2097,7 +2313,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -2108,7 +2324,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>443</v>
       </c>
@@ -2119,7 +2335,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>204</v>
       </c>
@@ -2141,31 +2357,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4DCA3A-1DC2-47CE-A266-08A68F36E4AA}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2270,20 +2486,20 @@
       <c r="O2" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>206</v>
       </c>
@@ -2329,20 +2545,20 @@
       <c r="O3" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2388,20 +2604,20 @@
       <c r="O4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2447,20 +2663,20 @@
       <c r="O5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -2504,20 +2720,20 @@
       <c r="O6" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2557,20 +2773,20 @@
       <c r="O7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>207</v>
       </c>
@@ -2610,20 +2826,20 @@
       <c r="O8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2661,20 +2877,20 @@
       <c r="O9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>208</v>
       </c>
@@ -2710,20 +2926,20 @@
       <c r="O10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2757,20 +2973,20 @@
       <c r="O11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>209</v>
       </c>
@@ -2802,20 +3018,20 @@
       <c r="O12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2847,20 +3063,20 @@
       <c r="O13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>210</v>
       </c>
@@ -2892,20 +3108,20 @@
       <c r="O14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2937,20 +3153,20 @@
       <c r="O15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2982,20 +3198,20 @@
       <c r="O16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3032,7 +3248,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -3069,7 +3285,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -3106,7 +3322,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -3143,7 +3359,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -3180,7 +3396,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -3215,7 +3431,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -3250,7 +3466,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -3283,7 +3499,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -3316,7 +3532,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -3349,7 +3565,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3598,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -3413,7 +3629,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>219</v>
       </c>
@@ -3444,7 +3660,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -3475,7 +3691,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -3506,7 +3722,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -3535,7 +3751,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -3564,7 +3780,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -3593,7 +3809,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -3622,7 +3838,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>211</v>
       </c>
@@ -3649,7 +3865,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -3676,7 +3892,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -3703,7 +3919,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>212</v>
       </c>
@@ -3730,7 +3946,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>213</v>
       </c>
@@ -3757,7 +3973,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3784,7 +4000,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3811,7 +4027,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>214</v>
       </c>
@@ -3838,7 +4054,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -3865,7 +4081,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>215</v>
       </c>
@@ -3890,7 +4106,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -3915,7 +4131,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -3940,7 +4156,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -3965,7 +4181,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -3990,7 +4206,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -4015,7 +4231,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>217</v>
       </c>
@@ -4040,7 +4256,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>218</v>
       </c>
@@ -4065,7 +4281,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
@@ -4088,7 +4304,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
@@ -4111,7 +4327,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
@@ -4144,25 +4360,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EDCCED-1EA3-4BBC-8CE7-4EB91C5EEB55}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -4221,7 +4437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -4267,20 +4483,20 @@
       <c r="O2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -4326,20 +4542,20 @@
       <c r="O3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -4385,20 +4601,20 @@
       <c r="O4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
@@ -4444,20 +4660,20 @@
       <c r="O5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
@@ -4503,20 +4719,20 @@
       <c r="O6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -4562,20 +4778,20 @@
       <c r="O7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>116</v>
       </c>
@@ -4626,7 +4842,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>117</v>
       </c>
@@ -4677,7 +4893,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>118</v>
       </c>
@@ -4728,7 +4944,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>119</v>
       </c>
@@ -4773,7 +4989,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4806,7 +5022,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -4839,7 +5055,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -4862,7 +5078,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -4885,7 +5101,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -4906,7 +5122,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -4927,7 +5143,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -4948,7 +5164,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -4969,7 +5185,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -4990,7 +5206,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -5011,7 +5227,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -5032,7 +5248,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5053,7 +5269,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5074,7 +5290,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5095,7 +5311,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5116,7 +5332,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5137,7 +5353,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5158,7 +5374,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -5179,7 +5395,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -5200,7 +5416,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5221,7 +5437,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5242,7 +5458,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5267,4 +5483,178 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD32D0-980E-514E-8D74-568EF86C7D24}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/api/reference_data/Trac Cloud-Reference.xlsx
+++ b/api/reference_data/Trac Cloud-Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjinhong/Desktop/TracCloud_v2/api/reference_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807B64C-22F7-F443-B45F-64E7A87CC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F21252-4449-7049-9FFC-C8FCA69736C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="640" windowWidth="26720" windowHeight="17120" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="481">
   <si>
     <t>Cortland</t>
   </si>
@@ -1628,7 +1628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1665,73 +1665,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1742,7 +1675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1752,29 +1685,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5490,7 +5406,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5512,149 +5428,174 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/api/reference_data/Trac Cloud-Reference.xlsx
+++ b/api/reference_data/Trac Cloud-Reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjinhong/Desktop/TracCloud_v2/api/reference_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Yu\Desktop\TracCloud_v2\api\reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F21252-4449-7049-9FFC-C8FCA69736C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF638B-632A-4EAE-B1F9-27C008A2BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="640" windowWidth="26720" windowHeight="17120" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CropCategory" sheetId="2" r:id="rId1"/>
@@ -1558,19 +1558,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1578,14 +1578,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1668,29 +1668,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2013,28 +2010,28 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>447</v>
       </c>
@@ -2050,7 +2047,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>164</v>
       </c>
@@ -2064,7 +2061,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>165</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>168</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>171</v>
       </c>
@@ -2097,7 +2094,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>174</v>
       </c>
@@ -2108,7 +2105,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
@@ -2119,7 +2116,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>179</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>182</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>185</v>
       </c>
@@ -2152,7 +2149,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>188</v>
       </c>
@@ -2163,7 +2160,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>191</v>
       </c>
@@ -2174,7 +2171,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>196</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>197</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
@@ -2207,7 +2204,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>202</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>205</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -2240,7 +2237,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>443</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>204</v>
       </c>
@@ -2277,27 +2274,27 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>206</v>
       </c>
@@ -2474,7 +2471,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2530,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2589,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>207</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>208</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>209</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2992,7 +2989,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>210</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3164,7 +3161,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -3201,7 +3198,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -3238,7 +3235,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -3275,7 +3272,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -3312,7 +3309,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -3347,7 +3344,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -3382,7 +3379,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -3415,7 +3412,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +3445,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -3481,7 +3478,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -3514,7 +3511,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -3545,7 +3542,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>219</v>
       </c>
@@ -3576,7 +3573,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -3607,7 +3604,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -3638,7 +3635,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -3667,7 +3664,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -3696,7 +3693,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -3725,7 +3722,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -3754,7 +3751,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>211</v>
       </c>
@@ -3781,7 +3778,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -3808,7 +3805,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -3835,7 +3832,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>212</v>
       </c>
@@ -3862,7 +3859,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>213</v>
       </c>
@@ -3889,7 +3886,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3916,7 +3913,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3943,7 +3940,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>214</v>
       </c>
@@ -3970,7 +3967,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -3997,7 +3994,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>215</v>
       </c>
@@ -4022,7 +4019,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -4047,7 +4044,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -4072,7 +4069,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -4097,7 +4094,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -4122,7 +4119,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -4147,7 +4144,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>217</v>
       </c>
@@ -4172,7 +4169,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>218</v>
       </c>
@@ -4197,7 +4194,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
@@ -4220,7 +4217,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
@@ -4243,7 +4240,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
@@ -4278,23 +4275,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -4353,7 +4350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -4471,7 +4468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
@@ -4589,7 +4586,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
@@ -4648,7 +4645,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>116</v>
       </c>
@@ -4758,7 +4755,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>117</v>
       </c>
@@ -4809,7 +4806,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>118</v>
       </c>
@@ -4860,7 +4857,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>119</v>
       </c>
@@ -4905,7 +4902,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4938,7 +4935,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -4971,7 +4968,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -4994,7 +4991,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5017,7 +5014,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -5038,7 +5035,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -5059,7 +5056,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -5080,7 +5077,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -5101,7 +5098,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -5122,7 +5119,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -5143,7 +5140,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -5164,7 +5161,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5185,7 +5182,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5206,7 +5203,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5227,7 +5224,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5248,7 +5245,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5269,7 +5266,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5290,7 +5287,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -5311,7 +5308,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -5332,7 +5329,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5353,7 +5350,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5374,7 +5371,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5409,14 +5406,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>478</v>
       </c>
@@ -5427,175 +5424,176 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/api/reference_data/Trac Cloud-Reference.xlsx
+++ b/api/reference_data/Trac Cloud-Reference.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Yu\Desktop\TracCloud_v2\api\reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF638B-632A-4EAE-B1F9-27C008A2BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16DE21-F116-4BB9-8C91-DF349EB68EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20625" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CropCategory" sheetId="2" r:id="rId1"/>
     <sheet name="CropVariety" sheetId="11" r:id="rId2"/>
     <sheet name="CropGrowthStage" sheetId="12" r:id="rId3"/>
-    <sheet name="Unit" sheetId="13" r:id="rId4"/>
+    <sheet name="SiteType" sheetId="14" r:id="rId4"/>
+    <sheet name="Unit" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="494">
   <si>
     <t>Cortland</t>
   </si>
@@ -1552,6 +1553,53 @@
   <si>
     <t>note</t>
   </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>Orchard</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Vineyard</t>
+  </si>
+  <si>
+    <t>Property Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golf Course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golf Feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hole Code#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1560,7 +1608,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1611,6 +1659,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1675,7 +1729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1688,6 +1742,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2007,7 +2063,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4DCA3A-1DC2-47CE-A266-08A68F36E4AA}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5399,11 +5455,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D59E9E-B6B3-47F7-98D1-3C02E9B99090}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD32D0-980E-514E-8D74-568EF86C7D24}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/api/reference_data/Trac Cloud-Reference.xlsx
+++ b/api/reference_data/Trac Cloud-Reference.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Yu\Desktop\TracCloud_v2\api\reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16DE21-F116-4BB9-8C91-DF349EB68EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A3C41-6268-4CA2-A44B-75A621A087B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20625" activeTab="3" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{DBDB3231-6E10-7F42-9DE3-16C5A1F061A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CropCategory" sheetId="2" r:id="rId1"/>
     <sheet name="CropVariety" sheetId="11" r:id="rId2"/>
     <sheet name="CropGrowthStage" sheetId="12" r:id="rId3"/>
     <sheet name="SiteType" sheetId="14" r:id="rId4"/>
-    <sheet name="Unit" sheetId="13" r:id="rId5"/>
+    <sheet name="DecisionSupport" sheetId="15" r:id="rId5"/>
+    <sheet name="ApplicationTarget" sheetId="17" r:id="rId6"/>
+    <sheet name="Unit" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="786">
   <si>
     <t>Cortland</t>
   </si>
@@ -1599,6 +1601,884 @@
   <si>
     <t>Row</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consultant Report</t>
+  </si>
+  <si>
+    <t>Crop Update</t>
+  </si>
+  <si>
+    <t>Degree Day Model</t>
+  </si>
+  <si>
+    <t>Disease Forecast</t>
+  </si>
+  <si>
+    <t>Extension Report</t>
+  </si>
+  <si>
+    <t>Historical Records</t>
+  </si>
+  <si>
+    <t>Insect Pest Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pest Alert </t>
+  </si>
+  <si>
+    <t>Phenology/Growth Stage</t>
+  </si>
+  <si>
+    <t>Scouting Report</t>
+  </si>
+  <si>
+    <t>Threshold Exceeded</t>
+  </si>
+  <si>
+    <t>Trap Catch Numbers</t>
+  </si>
+  <si>
+    <t>Weather Conditions</t>
+  </si>
+  <si>
+    <t>Soil Test Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue Analysis Results </t>
+  </si>
+  <si>
+    <t>Petiole Analysis Results</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Management</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>All Weeds</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Apple Rusts</t>
+  </si>
+  <si>
+    <t>Fabraea Leaf Spot</t>
+  </si>
+  <si>
+    <t>Bacterial Canker</t>
+  </si>
+  <si>
+    <t>Black Knot</t>
+  </si>
+  <si>
+    <t>Angular Leaf Spot</t>
+  </si>
+  <si>
+    <t>Anthracnose Fruit Rot/Blossom Blight</t>
+  </si>
+  <si>
+    <t>Anthracnose</t>
+  </si>
+  <si>
+    <t>Currant Cane Blight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthracnose, basal </t>
+  </si>
+  <si>
+    <t>Crop Thinning</t>
+  </si>
+  <si>
+    <t>Annual Broadleaves</t>
+  </si>
+  <si>
+    <t>Apple Scab</t>
+  </si>
+  <si>
+    <t>Fire Blight</t>
+  </si>
+  <si>
+    <t>Bacterial Spot</t>
+  </si>
+  <si>
+    <t>Brown Rot</t>
+  </si>
+  <si>
+    <t>Blueberry Leaf Rust</t>
+  </si>
+  <si>
+    <t>Cane Blight</t>
+  </si>
+  <si>
+    <t>Leaf Spots</t>
+  </si>
+  <si>
+    <t>Anthracnose, foliar</t>
+  </si>
+  <si>
+    <t>Nutrient Deficiency</t>
+  </si>
+  <si>
+    <t>Annual Grasses</t>
+  </si>
+  <si>
+    <t>Bitter Rot</t>
+  </si>
+  <si>
+    <t>Pear Scab</t>
+  </si>
+  <si>
+    <t>Peach Scab</t>
+  </si>
+  <si>
+    <t>Black Root Rot</t>
+  </si>
+  <si>
+    <t>Botrytis Blossom and Twig Blight</t>
+  </si>
+  <si>
+    <t>Powdery Mildew</t>
+  </si>
+  <si>
+    <t>Brown patch</t>
+  </si>
+  <si>
+    <t>Routine Fertilization</t>
+  </si>
+  <si>
+    <t>Summer Annual Grasses</t>
+  </si>
+  <si>
+    <t>Black Rot</t>
+  </si>
+  <si>
+    <t>Phytophthora Crown/Collar/Root Rot</t>
+  </si>
+  <si>
+    <t>Peach Leaf Curl</t>
+  </si>
+  <si>
+    <t>Cherry Leaf Spot</t>
+  </si>
+  <si>
+    <t>Gray Mold/Botrytis Fruit Rot</t>
+  </si>
+  <si>
+    <t>Double Spot</t>
+  </si>
+  <si>
+    <t>White Pine Blister Rust</t>
+  </si>
+  <si>
+    <t>Copper spot</t>
+  </si>
+  <si>
+    <t>Winter Annual Grasses</t>
+  </si>
+  <si>
+    <t>Blister Spot</t>
+  </si>
+  <si>
+    <t>Leaf Blight</t>
+  </si>
+  <si>
+    <t>Fusicoccum Canker</t>
+  </si>
+  <si>
+    <t>Late Leaf Rust</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Currant Aphid</t>
+  </si>
+  <si>
+    <t>Botrytis Bunch Rot</t>
+  </si>
+  <si>
+    <t>Damping-off, seed rot</t>
+  </si>
+  <si>
+    <t>Perennial Broadleaves</t>
+  </si>
+  <si>
+    <t>Blossom End Rot</t>
+  </si>
+  <si>
+    <t>Pseudomonas Spur Blight</t>
+  </si>
+  <si>
+    <t>American Plum Borer</t>
+  </si>
+  <si>
+    <t>Leaf Scorch</t>
+  </si>
+  <si>
+    <t>Mummyberry</t>
+  </si>
+  <si>
+    <t>Phytophthora Root Rot</t>
+  </si>
+  <si>
+    <t>Currant Borer</t>
+  </si>
+  <si>
+    <t>Downy Mildew</t>
+  </si>
+  <si>
+    <t>Dollar spot</t>
+  </si>
+  <si>
+    <t>Perennial Grasses</t>
+  </si>
+  <si>
+    <t>Sooty Blotch &amp; Flyspeck</t>
+  </si>
+  <si>
+    <t>Brown Marmorated Stink Bug</t>
+  </si>
+  <si>
+    <t>Apple Maggot</t>
+  </si>
+  <si>
+    <t>Leaf Spot</t>
+  </si>
+  <si>
+    <t>Phomopsis Canker and Twig Blight</t>
+  </si>
+  <si>
+    <t>Currant Stem Girdler</t>
+  </si>
+  <si>
+    <t>Phomopsis Cane, Leaf Spot, Fruit Rot</t>
+  </si>
+  <si>
+    <t>Downy mildew</t>
+  </si>
+  <si>
+    <t>Biennial Weeds</t>
+  </si>
+  <si>
+    <t>Aphids</t>
+  </si>
+  <si>
+    <t>Rusty Spot</t>
+  </si>
+  <si>
+    <t>European Fruit Lecanium Scale</t>
+  </si>
+  <si>
+    <t>X-disease</t>
+  </si>
+  <si>
+    <t>Leather Rot</t>
+  </si>
+  <si>
+    <t>Raspberry Cane and Leaf Spot</t>
+  </si>
+  <si>
+    <t>Gooseberry Fruitworm</t>
+  </si>
+  <si>
+    <t>Fairy rings</t>
+  </si>
+  <si>
+    <t>Suckers</t>
+  </si>
+  <si>
+    <t>European Red Mite</t>
+  </si>
+  <si>
+    <t>Blueberry Maggot</t>
+  </si>
+  <si>
+    <t>Spur Blight</t>
+  </si>
+  <si>
+    <t>Imported Currant Worm</t>
+  </si>
+  <si>
+    <t>Ripe Rot</t>
+  </si>
+  <si>
+    <t>Gray leaf spot</t>
+  </si>
+  <si>
+    <t>Wsp</t>
+  </si>
+  <si>
+    <t>Annual bluegrass (Poa annua)</t>
+  </si>
+  <si>
+    <t>Codling Moth</t>
+  </si>
+  <si>
+    <t>Japanese Beetle</t>
+  </si>
+  <si>
+    <t>Black Cherry Aphid</t>
+  </si>
+  <si>
+    <t>Red Stele</t>
+  </si>
+  <si>
+    <t>Blueberry Stem Borer</t>
+  </si>
+  <si>
+    <t>Blackberry Psyllid</t>
+  </si>
+  <si>
+    <t>Sour Rot</t>
+  </si>
+  <si>
+    <t>Gray snow mold</t>
+  </si>
+  <si>
+    <t>Barnyardgrass</t>
+  </si>
+  <si>
+    <t>White Rot</t>
+  </si>
+  <si>
+    <t>Comstock Mealybug</t>
+  </si>
+  <si>
+    <t>Lesser Peachtree Borer</t>
+  </si>
+  <si>
+    <t>Black Cherry Fruit Fly</t>
+  </si>
+  <si>
+    <t>Rhizopus Rot</t>
+  </si>
+  <si>
+    <t>Blueberry Tip Borer</t>
+  </si>
+  <si>
+    <t>Borers/Cane Girdlers</t>
+  </si>
+  <si>
+    <t>San Jose Scale</t>
+  </si>
+  <si>
+    <t>Banded Grape Bug</t>
+  </si>
+  <si>
+    <t>Leaf blight</t>
+  </si>
+  <si>
+    <t>Bindweed</t>
+  </si>
+  <si>
+    <t>Oriental Fruit Moth</t>
+  </si>
+  <si>
+    <t>Spotted-Wing Drosophila</t>
+  </si>
+  <si>
+    <t>Leaf spots</t>
+  </si>
+  <si>
+    <t>Black medic</t>
+  </si>
+  <si>
+    <t>Green Fruitworms</t>
+  </si>
+  <si>
+    <t>Peachtree Borer</t>
+  </si>
+  <si>
+    <t>Cherry Fruit Fly</t>
+  </si>
+  <si>
+    <t>Cherry Fruitworm</t>
+  </si>
+  <si>
+    <t>Two-Spotted Spider Mite</t>
+  </si>
+  <si>
+    <t>Climbing Cutworms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microdochium patch </t>
+  </si>
+  <si>
+    <t>Buckhorn</t>
+  </si>
+  <si>
+    <t>Apple Aphid</t>
+  </si>
+  <si>
+    <t>Obliquebanded Leafroller</t>
+  </si>
+  <si>
+    <t>Green Peach Aphid</t>
+  </si>
+  <si>
+    <t>Plum Curculio</t>
+  </si>
+  <si>
+    <t>European Cherry Fruit Fly</t>
+  </si>
+  <si>
+    <t>Cyclamen Mite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cranberry Fruitworm </t>
+  </si>
+  <si>
+    <t>Potato Leafhopper</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Slugs and Snails</t>
+  </si>
+  <si>
+    <t>Eurpean Corn Borer</t>
+  </si>
+  <si>
+    <t>Necrotic ring spot</t>
+  </si>
+  <si>
+    <t>Burdock</t>
+  </si>
+  <si>
+    <t>Apple Blotch Leafminer</t>
+  </si>
+  <si>
+    <t>Pear Midge</t>
+  </si>
+  <si>
+    <t>Greenhouse Whitefly</t>
+  </si>
+  <si>
+    <t>Insect Stem Gall</t>
+  </si>
+  <si>
+    <t>Raspberry Aphid</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Nematode-caused diseases</t>
+  </si>
+  <si>
+    <t>Buttercup</t>
+  </si>
+  <si>
+    <t>Apple Leaf Curling Midge</t>
+  </si>
+  <si>
+    <t>Pear Plant Bug</t>
+  </si>
+  <si>
+    <t>Spotted Lanternfly</t>
+  </si>
+  <si>
+    <t>Redbanded Leafroller</t>
+  </si>
+  <si>
+    <t>Raspberry Crown Borer</t>
+  </si>
+  <si>
+    <t>Grape Berry Moth</t>
+  </si>
+  <si>
+    <t>Pink patch</t>
+  </si>
+  <si>
+    <t>Carrot, wild (Queen Anne's lace)</t>
+  </si>
+  <si>
+    <t>Pear Psylla</t>
+  </si>
+  <si>
+    <t>Leafrollers</t>
+  </si>
+  <si>
+    <t>Raspberry Fruitworm</t>
+  </si>
+  <si>
+    <t>Grape Cane Borer</t>
+  </si>
+  <si>
+    <t>Pink snow mold</t>
+  </si>
+  <si>
+    <t>Chickweed</t>
+  </si>
+  <si>
+    <t>Apple Rust Mite</t>
+  </si>
+  <si>
+    <t>Pear Rust Mite</t>
+  </si>
+  <si>
+    <t>Stink Bugs</t>
+  </si>
+  <si>
+    <t>Picnic Beetle</t>
+  </si>
+  <si>
+    <t>Raspberry Sawfly</t>
+  </si>
+  <si>
+    <t>Grape Cane Gallmaker</t>
+  </si>
+  <si>
+    <t>Cinquefoil</t>
+  </si>
+  <si>
+    <t>Black Stem Borer</t>
+  </si>
+  <si>
+    <t>Pearleaf Blister Mite</t>
+  </si>
+  <si>
+    <t>Tarnished Plant Bug</t>
+  </si>
+  <si>
+    <t>Scale Insects</t>
+  </si>
+  <si>
+    <t>Sap Beetles</t>
+  </si>
+  <si>
+    <t>Grape Cane Girdler</t>
+  </si>
+  <si>
+    <t>Pythium blight</t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t>Two Spotted Spider Mite</t>
+  </si>
+  <si>
+    <t>Root Weevils</t>
+  </si>
+  <si>
+    <t>Grape Flea Beetle, Steely Beetle</t>
+  </si>
+  <si>
+    <t>Pythium root rot</t>
+  </si>
+  <si>
+    <t>Crabgrass</t>
+  </si>
+  <si>
+    <t>Western Flower Thrips</t>
+  </si>
+  <si>
+    <t>Spittlebug</t>
+  </si>
+  <si>
+    <t>Grape Leafhopper</t>
+  </si>
+  <si>
+    <t>Red Thread</t>
+  </si>
+  <si>
+    <t>Dandelion</t>
+  </si>
+  <si>
+    <t>White Peach Scale</t>
+  </si>
+  <si>
+    <t>Grape Phylloxera</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Deadnettle</t>
+  </si>
+  <si>
+    <t>Cutworm</t>
+  </si>
+  <si>
+    <t>Spirea Aphid</t>
+  </si>
+  <si>
+    <t>White Prunicola Scale</t>
+  </si>
+  <si>
+    <t>Strawberry Clipper (Bud Weevils)</t>
+  </si>
+  <si>
+    <t>Grape Rootworm</t>
+  </si>
+  <si>
+    <t>Smut</t>
+  </si>
+  <si>
+    <t>Dock</t>
+  </si>
+  <si>
+    <t>Dogwood Borer</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Storage Rots</t>
+  </si>
+  <si>
+    <t>Strawberry Rootworm</t>
+  </si>
+  <si>
+    <t>Grape Root Borers</t>
+  </si>
+  <si>
+    <t>Summer patch</t>
+  </si>
+  <si>
+    <t>Fescue</t>
+  </si>
+  <si>
+    <t>European Apple Sawfly</t>
+  </si>
+  <si>
+    <t>Strawberry Sap Beetle</t>
+  </si>
+  <si>
+    <t>Take-all patch</t>
+  </si>
+  <si>
+    <t>Fescue, tall</t>
+  </si>
+  <si>
+    <t>European Corn Borer</t>
+  </si>
+  <si>
+    <t>Leafhoppers</t>
+  </si>
+  <si>
+    <t>Typhula blight</t>
+  </si>
+  <si>
+    <t>Foxtails</t>
+  </si>
+  <si>
+    <t>Lygocoris inconspicuous</t>
+  </si>
+  <si>
+    <t>Yellow patch</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>White Grubs</t>
+  </si>
+  <si>
+    <t>Mealybugs and Soft Scales</t>
+  </si>
+  <si>
+    <t>Yellow tuft</t>
+  </si>
+  <si>
+    <t>Goosegrass</t>
+  </si>
+  <si>
+    <t>Slugs</t>
+  </si>
+  <si>
+    <t>Multicolored Asian Lady Beetle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual bluegrass weevil </t>
+  </si>
+  <si>
+    <t>Ground ivy</t>
+  </si>
+  <si>
+    <t>Internal Lep's</t>
+  </si>
+  <si>
+    <t>Plume Moth</t>
+  </si>
+  <si>
+    <t>Ants, Mound-building</t>
+  </si>
+  <si>
+    <t>Hawkweed</t>
+  </si>
+  <si>
+    <t>Black cutworm</t>
+  </si>
+  <si>
+    <t>Heal-all</t>
+  </si>
+  <si>
+    <t>Lesser Appleworm</t>
+  </si>
+  <si>
+    <t>Rose Chafer</t>
+  </si>
+  <si>
+    <t>Black turfgrass ataenius beetles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henbit </t>
+  </si>
+  <si>
+    <t>Mullein Plant Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluegrass billbug </t>
+  </si>
+  <si>
+    <t>Johnsongrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinch bug </t>
+  </si>
+  <si>
+    <t>Knotweed, prostrate</t>
+  </si>
+  <si>
+    <t>Snails</t>
+  </si>
+  <si>
+    <t>European crane flies</t>
+  </si>
+  <si>
+    <t>Mallow</t>
+  </si>
+  <si>
+    <t>Oystershell Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall armyworm </t>
+  </si>
+  <si>
+    <t>Moneywort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sod webworms </t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White grubs </t>
+  </si>
+  <si>
+    <t>Mustard, wild</t>
+  </si>
+  <si>
+    <t>Nutsedge</t>
+  </si>
+  <si>
+    <t>Rosy Apple Aphid</t>
+  </si>
+  <si>
+    <t>Wild Onion</t>
+  </si>
+  <si>
+    <t>Orchardgrass</t>
+  </si>
+  <si>
+    <t>Sparganothis Fruitworm</t>
+  </si>
+  <si>
+    <t>Panicum</t>
+  </si>
+  <si>
+    <t>Pearlwort</t>
+  </si>
+  <si>
+    <t>Pennycress, field</t>
+  </si>
+  <si>
+    <t>Spotted Tentiform Leafminer</t>
+  </si>
+  <si>
+    <t>Plantains</t>
+  </si>
+  <si>
+    <t>Poa trivialis</t>
+  </si>
+  <si>
+    <t>Purslane</t>
+  </si>
+  <si>
+    <t>Quackgrass</t>
+  </si>
+  <si>
+    <t>Variegated Leafroller</t>
+  </si>
+  <si>
+    <t>Shepherd's purse</t>
+  </si>
+  <si>
+    <t>White Apple Leafhopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorrel, sheep (red) </t>
+  </si>
+  <si>
+    <t>Speedwell</t>
+  </si>
+  <si>
+    <t>Woolly Apple Aphid</t>
+  </si>
+  <si>
+    <t>Spurge</t>
+  </si>
+  <si>
+    <t>Bitter Pit</t>
+  </si>
+  <si>
+    <t>Star of Bethlehem</t>
+  </si>
+  <si>
+    <t>Senescent Breakdown</t>
+  </si>
+  <si>
+    <t>Thistles</t>
+  </si>
+  <si>
+    <t>Violet, wild</t>
+  </si>
+  <si>
+    <t>Storage Scald</t>
+  </si>
+  <si>
+    <t>Woodsorrel (Oxalis)</t>
+  </si>
+  <si>
+    <t>Yarrow</t>
+  </si>
+  <si>
+    <t>Yellow rocket</t>
+  </si>
+  <si>
+    <t>crop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lawn</t>
+  </si>
+  <si>
+    <t>Sod</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +2609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1738,12 +2618,17 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2063,7 +2948,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D59E9E-B6B3-47F7-98D1-3C02E9B99090}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5480,7 +6365,7 @@
       <c r="C1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -5495,7 +6380,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>488</v>
       </c>
       <c r="C3" s="2"/>
@@ -5505,7 +6390,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C4" s="2"/>
@@ -5515,7 +6400,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C5" s="2"/>
@@ -5525,7 +6410,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="2"/>
@@ -5535,7 +6420,7 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>486</v>
       </c>
       <c r="C7" s="2"/>
@@ -5545,7 +6430,7 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C8" s="2"/>
@@ -5555,7 +6440,7 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C9" s="2"/>
@@ -5565,7 +6450,7 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>490</v>
       </c>
       <c r="C10" s="2"/>
@@ -5575,7 +6460,7 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C11" s="2"/>
@@ -5585,7 +6470,7 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>492</v>
       </c>
       <c r="C12" s="2"/>
@@ -5651,11 +6536,7040 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75A5AE-FDBD-4587-A991-0EBAD55FC218}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I38:I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499FFD95-1B2E-44EC-8897-3DCED7801630}">
+  <dimension ref="A1:D638"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C485" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C486" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C487" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B489" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C491" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C494" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C495" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C496" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C497" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C498" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C499" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C500" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C501" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C502" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B503" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C503" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C504" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B505" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C505" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C506" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C507" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C508" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C509" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B510" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C510" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C511" s="11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C512" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C513" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B514" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C514" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C515" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B516" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C516" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C517" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B518" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C518" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B519" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C519" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B520" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C520" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B521" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C521" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C522" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C526" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C534" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B540" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C540" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C542" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B546" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C546" s="10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B554" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C556" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B558" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C558" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B561" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C561" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C564" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C566" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C568" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C570" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B572" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C572" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B574" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C574" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B575" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B576" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C576" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B577" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B578" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C578" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B579" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B580" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C580" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B581" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B582" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B584" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C584" s="10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B585" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B586" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C586" s="10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B587" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B588" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B590" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B591" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B592" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B594" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B595" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B596" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C596" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B597" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B598" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C598" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B600" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C600" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B601" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B604" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C604" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C606" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B608" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C608" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B610" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B611" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B612" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C612" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B613" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B614" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C614" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B615" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B616" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C616" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B617" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B618" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B620" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B621" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B622" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B623" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B624" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C624" s="10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B625" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B626" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C626" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B627" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B628" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C628" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B629" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B630" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C630" s="10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B631" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B632" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C632" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B633" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B634" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C634" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B636" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C636" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B637" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B638" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD32D0-980E-514E-8D74-568EF86C7D24}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5666,18 +13580,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5688,7 +13602,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5699,7 +13613,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5710,7 +13624,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -5721,7 +13635,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5732,7 +13646,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -5743,7 +13657,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5754,7 +13668,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5765,7 +13679,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -5776,7 +13690,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -5787,7 +13701,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5798,7 +13712,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -5809,7 +13723,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5818,7 +13732,7 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5827,7 +13741,7 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5836,7 +13750,7 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B17" s="2" t="s">
